--- a/data_year/zb/国民经济核算/投入产出基本流量表/中间使用部分/非金属矿物制品业.xlsx
+++ b/data_year/zb/国民经济核算/投入产出基本流量表/中间使用部分/非金属矿物制品业.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,623 +558,376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4398649</v>
+        <v>18993295.4213045</v>
       </c>
       <c r="C2" t="n">
-        <v>132952.71</v>
+        <v>4263169.82314611</v>
       </c>
       <c r="D2" t="n">
-        <v>216072</v>
+        <v>188364.464205849</v>
       </c>
       <c r="E2" t="n">
-        <v>4673320</v>
+        <v>30351444.6832146</v>
       </c>
       <c r="F2" t="n">
-        <v>57950.7</v>
+        <v>134286.503896023</v>
       </c>
       <c r="G2" t="n">
-        <v>670078.2</v>
+        <v>3410573.78931211</v>
       </c>
       <c r="H2" t="n">
-        <v>4371929</v>
+        <v>12297293.6239597</v>
       </c>
       <c r="I2" t="n">
-        <v>3205812</v>
+        <v>16579675.8353076</v>
       </c>
       <c r="J2" t="n">
-        <v>2753838.2</v>
+        <v>16821951.2280238</v>
       </c>
       <c r="K2" t="n">
-        <v>4900150</v>
+        <v>24937855.8197463</v>
       </c>
       <c r="L2" t="n">
-        <v>1071655</v>
+        <v>1916140.43265835</v>
       </c>
       <c r="M2" t="n">
-        <v>3396886.5</v>
+        <v>18960945.2637342</v>
       </c>
       <c r="N2" t="n">
-        <v>4032529.7</v>
+        <v>53273771.9069702</v>
       </c>
       <c r="O2" t="n">
-        <v>3648620</v>
+        <v>22245243.6803376</v>
       </c>
       <c r="P2" t="n">
-        <v>1063380</v>
+        <v>10383029.2412383</v>
       </c>
       <c r="Q2" t="n">
-        <v>44195399.61</v>
+        <v>312706857.530592</v>
       </c>
       <c r="R2" t="n">
-        <v>9726872.56014348</v>
+        <v>31084977.8516414</v>
       </c>
       <c r="S2" t="n">
-        <v>3659214.95771714</v>
+        <v>12075854.6026468</v>
       </c>
       <c r="T2" t="n">
-        <v>18555901.5233895</v>
+        <v>87933881.236283</v>
       </c>
       <c r="U2" t="n">
-        <v>62751302</v>
+        <v>400640738.766875</v>
       </c>
       <c r="V2" t="n">
-        <v>5542450</v>
+        <v>76537459.9117728</v>
       </c>
       <c r="W2" t="n">
-        <v>3261846.16164447</v>
+        <v>16926668.8950929</v>
       </c>
       <c r="X2" t="n">
-        <v>1907967.84388437</v>
+        <v>27846379.8869019</v>
       </c>
       <c r="Y2" t="n">
-        <v>59126.6</v>
+        <v>1412355.90176387</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2555283.84089625</v>
+        <v>11975967.0210155</v>
       </c>
       <c r="C3" t="n">
-        <v>713582.375840768</v>
+        <v>5113788.29337009</v>
       </c>
       <c r="D3" t="n">
-        <v>44796.7395160383</v>
+        <v>175060.909196425</v>
       </c>
       <c r="E3" t="n">
-        <v>3879190.78125598</v>
+        <v>36538017.0328953</v>
       </c>
       <c r="F3" t="n">
-        <v>48679.5274478744</v>
+        <v>900479.6960916989</v>
       </c>
       <c r="G3" t="n">
-        <v>1202562.3138832</v>
+        <v>5448894.93341819</v>
       </c>
       <c r="H3" t="n">
-        <v>3277283.62531547</v>
+        <v>12714170.6150835</v>
       </c>
       <c r="I3" t="n">
-        <v>2940913.15470143</v>
+        <v>17347467.9576288</v>
       </c>
       <c r="J3" t="n">
-        <v>1757973.1878799</v>
+        <v>17769103.9290266</v>
       </c>
       <c r="K3" t="n">
-        <v>3572869.20232299</v>
+        <v>26950258.5839351</v>
       </c>
       <c r="L3" t="n">
-        <v>460093.783189261</v>
+        <v>3974040.90678163</v>
       </c>
       <c r="M3" t="n">
-        <v>3386467.77752413</v>
+        <v>19672977.0284032</v>
       </c>
       <c r="N3" t="n">
-        <v>5614025.20734102</v>
+        <v>59970210.8901706</v>
       </c>
       <c r="O3" t="n">
-        <v>3026135.67621373</v>
+        <v>23691250.5968189</v>
       </c>
       <c r="P3" t="n">
-        <v>1783717.81535011</v>
+        <v>11468895.0935669</v>
       </c>
       <c r="Q3" t="n">
-        <v>38958085.9015766</v>
+        <v>348309102.204462</v>
       </c>
       <c r="R3" t="n">
-        <v>9880149.26241005</v>
+        <v>46780569.5362705</v>
       </c>
       <c r="S3" t="n">
-        <v>3690998.2151757</v>
+        <v>19280142.7484125</v>
       </c>
       <c r="T3" t="n">
-        <v>19087251.2728338</v>
+        <v>117737129.852894</v>
       </c>
       <c r="U3" t="n">
-        <v>58045337.1744104</v>
+        <v>466046232.057356</v>
       </c>
       <c r="V3" t="n">
-        <v>4693308.49879143</v>
+        <v>92477446.8390653</v>
       </c>
       <c r="W3" t="n">
-        <v>4513542.16104831</v>
+        <v>25059412.1433685</v>
       </c>
       <c r="X3" t="n">
-        <v>1002561.63419972</v>
+        <v>26617005.424843</v>
       </c>
       <c r="Y3" t="n">
-        <v>1202.39410699585</v>
+        <v>2121071.87799395</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6677696.5149679</v>
+        <v>17973458.8351028</v>
       </c>
       <c r="C4" t="n">
-        <v>2164817.68240627</v>
+        <v>10911810.3386733</v>
       </c>
       <c r="D4" t="n">
-        <v>133284.209963885</v>
+        <v>350207.243965435</v>
       </c>
       <c r="E4" t="n">
-        <v>10582518.4611183</v>
+        <v>59624375.5304756</v>
       </c>
       <c r="F4" t="n">
-        <v>162381.922274271</v>
+        <v>1615876.55782517</v>
       </c>
       <c r="G4" t="n">
-        <v>2175287.48039394</v>
+        <v>13020020.0561503</v>
       </c>
       <c r="H4" t="n">
-        <v>8012310.07621499</v>
+        <v>26337752.2527804</v>
       </c>
       <c r="I4" t="n">
-        <v>7600112.80742221</v>
+        <v>31051507.3272585</v>
       </c>
       <c r="J4" t="n">
-        <v>6151745.315218</v>
+        <v>17029655.7449471</v>
       </c>
       <c r="K4" t="n">
-        <v>13183529.9548105</v>
+        <v>29174349.7598463</v>
       </c>
       <c r="L4" t="n">
-        <v>1226434.5756191</v>
+        <v>8294265.485246</v>
       </c>
       <c r="M4" t="n">
-        <v>10031693.863207</v>
+        <v>34626874.1112314</v>
       </c>
       <c r="N4" t="n">
-        <v>16048850.2609307</v>
+        <v>69765161.79980689</v>
       </c>
       <c r="O4" t="n">
-        <v>8783823.789709611</v>
+        <v>35714574.0765149</v>
       </c>
       <c r="P4" t="n">
-        <v>3667340.11828715</v>
+        <v>19911001.2074595</v>
       </c>
       <c r="Q4" t="n">
-        <v>110644539.024594</v>
+        <v>512227521.330381</v>
       </c>
       <c r="R4" t="n">
-        <v>13908788.3594085</v>
+        <v>47371541.8454451</v>
       </c>
       <c r="S4" t="n">
-        <v>6226386.61870884</v>
+        <v>19642471.5639087</v>
       </c>
       <c r="T4" t="n">
-        <v>42957957.2424391</v>
+        <v>130669616.091149</v>
       </c>
       <c r="U4" t="n">
-        <v>153602496.267033</v>
+        <v>642897137.42153</v>
       </c>
       <c r="V4" t="n">
-        <v>14039767.1281655</v>
+        <v>131960061.171823</v>
       </c>
       <c r="W4" t="n">
-        <v>7394646.7349679</v>
+        <v>22492685.5504111</v>
       </c>
       <c r="X4" t="n">
-        <v>15428135.5293538</v>
+        <v>41162917.1313842</v>
       </c>
       <c r="Y4" t="n">
-        <v>2944.8638842836</v>
+        <v>4866569.83127463</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10963140.3529562</v>
+        <v>3084637.67205655</v>
       </c>
       <c r="C5" t="n">
-        <v>2497142.73872872</v>
+        <v>19135800.6887668</v>
       </c>
       <c r="D5" t="n">
-        <v>86862.14864892011</v>
-      </c>
-      <c r="E5" t="n">
-        <v>17365493.0685244</v>
-      </c>
+        <v>207313.792191609</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>67222.74107345509</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1573276.24601811</v>
-      </c>
-      <c r="H5" t="n">
-        <v>6257847.20119003</v>
-      </c>
+        <v>150939.744838348</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>9486800.663521251</v>
+        <v>22301825.0867091</v>
       </c>
       <c r="J5" t="n">
-        <v>7187742.95951809</v>
+        <v>61402366.5092415</v>
       </c>
       <c r="K5" t="n">
-        <v>14685346.0542743</v>
+        <v>33136453.6739678</v>
       </c>
       <c r="L5" t="n">
-        <v>1081367.61735675</v>
-      </c>
-      <c r="M5" t="n">
-        <v>9455210.919647479</v>
-      </c>
+        <v>3948564.82200954</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>28910359.1336803</v>
+        <v>80906200.942956</v>
       </c>
       <c r="O5" t="n">
-        <v>11926722.4647671</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5245677.24161825</v>
-      </c>
+        <v>34600612.450999</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>165398426.610186</v>
+        <v>463342761.371858</v>
       </c>
       <c r="R5" t="n">
-        <v>21955535.437694</v>
+        <v>69163633.39334621</v>
       </c>
       <c r="S5" t="n">
-        <v>8191780.78478154</v>
+        <v>25650613.6490411</v>
       </c>
       <c r="T5" t="n">
-        <v>62645313.7205386</v>
+        <v>186114705.409012</v>
       </c>
       <c r="U5" t="n">
-        <v>228043740.330725</v>
+        <v>649457466.78087</v>
       </c>
       <c r="V5" t="n">
-        <v>37839321.6516536</v>
+        <v>121417931.144837</v>
       </c>
       <c r="W5" t="n">
-        <v>13519527.2443951</v>
+        <v>22971926.5129176</v>
       </c>
       <c r="X5" t="n">
-        <v>18978470.253668</v>
+        <v>68328531.85370719</v>
       </c>
       <c r="Y5" t="n">
-        <v>768893.4070091411</v>
+        <v>1636688.55578952</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18993295.4213045</v>
+        <v>3630070.6791003</v>
       </c>
       <c r="C6" t="n">
-        <v>4263169.82314611</v>
+        <v>20911765.6403241</v>
       </c>
       <c r="D6" t="n">
-        <v>188364.464205849</v>
-      </c>
-      <c r="E6" t="n">
-        <v>30351444.6832146</v>
-      </c>
+        <v>218881.187698502</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>134286.503896023</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3410573.78931211</v>
-      </c>
-      <c r="H6" t="n">
-        <v>12297293.6239597</v>
-      </c>
+        <v>162675.607305991</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>16579675.8353076</v>
+        <v>19571274.0852978</v>
       </c>
       <c r="J6" t="n">
-        <v>16821951.2280238</v>
+        <v>58393930.9094093</v>
       </c>
       <c r="K6" t="n">
-        <v>24937855.8197463</v>
+        <v>37285131.7476309</v>
       </c>
       <c r="L6" t="n">
-        <v>1916140.43265835</v>
-      </c>
-      <c r="M6" t="n">
-        <v>18960945.2637342</v>
-      </c>
+        <v>4050298.89802506</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>53273771.9069702</v>
+        <v>86623158.01583099</v>
       </c>
       <c r="O6" t="n">
-        <v>22245243.6803376</v>
-      </c>
-      <c r="P6" t="n">
-        <v>10383029.2412383</v>
-      </c>
+        <v>38094310.1297637</v>
+      </c>
+      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
-        <v>312706857.530592</v>
+        <v>502451885.341108</v>
       </c>
       <c r="R6" t="n">
-        <v>31084977.8516414</v>
+        <v>74959951.97837549</v>
       </c>
       <c r="S6" t="n">
-        <v>12075854.6026468</v>
+        <v>36252424.8424867</v>
       </c>
       <c r="T6" t="n">
-        <v>87933881.236283</v>
+        <v>230580001.209798</v>
       </c>
       <c r="U6" t="n">
-        <v>400640738.766875</v>
+        <v>733031886.5509059</v>
       </c>
       <c r="V6" t="n">
-        <v>76537459.9117728</v>
+        <v>139143632.929287</v>
       </c>
       <c r="W6" t="n">
-        <v>16926668.8950929</v>
+        <v>23472866.7779206</v>
       </c>
       <c r="X6" t="n">
-        <v>27846379.8869019</v>
+        <v>95894757.61101501</v>
       </c>
       <c r="Y6" t="n">
-        <v>1412355.90176387</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>11975967.0210155</v>
-      </c>
-      <c r="C7" t="n">
-        <v>5113788.29337009</v>
-      </c>
-      <c r="D7" t="n">
-        <v>175060.909196425</v>
-      </c>
-      <c r="E7" t="n">
-        <v>36538017.0328953</v>
-      </c>
-      <c r="F7" t="n">
-        <v>900479.6960916989</v>
-      </c>
-      <c r="G7" t="n">
-        <v>5448894.93341819</v>
-      </c>
-      <c r="H7" t="n">
-        <v>12714170.6150835</v>
-      </c>
-      <c r="I7" t="n">
-        <v>17347467.9576288</v>
-      </c>
-      <c r="J7" t="n">
-        <v>17769103.9290266</v>
-      </c>
-      <c r="K7" t="n">
-        <v>26950258.5839351</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3974040.90678163</v>
-      </c>
-      <c r="M7" t="n">
-        <v>19672977.0284032</v>
-      </c>
-      <c r="N7" t="n">
-        <v>59970210.8901706</v>
-      </c>
-      <c r="O7" t="n">
-        <v>23691250.5968189</v>
-      </c>
-      <c r="P7" t="n">
-        <v>11468895.0935669</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>348309102.204462</v>
-      </c>
-      <c r="R7" t="n">
-        <v>46780569.5362705</v>
-      </c>
-      <c r="S7" t="n">
-        <v>19280142.7484125</v>
-      </c>
-      <c r="T7" t="n">
-        <v>117737129.852894</v>
-      </c>
-      <c r="U7" t="n">
-        <v>466046232.057356</v>
-      </c>
-      <c r="V7" t="n">
-        <v>92477446.8390653</v>
-      </c>
-      <c r="W7" t="n">
-        <v>25059412.1433685</v>
-      </c>
-      <c r="X7" t="n">
-        <v>26617005.424843</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>2121071.87799395</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>17973458.8351028</v>
-      </c>
-      <c r="C8" t="n">
-        <v>10911810.3386733</v>
-      </c>
-      <c r="D8" t="n">
-        <v>350207.243965435</v>
-      </c>
-      <c r="E8" t="n">
-        <v>59624375.5304756</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1615876.55782517</v>
-      </c>
-      <c r="G8" t="n">
-        <v>13020020.0561503</v>
-      </c>
-      <c r="H8" t="n">
-        <v>26337752.2527804</v>
-      </c>
-      <c r="I8" t="n">
-        <v>31051507.3272585</v>
-      </c>
-      <c r="J8" t="n">
-        <v>17029655.7449471</v>
-      </c>
-      <c r="K8" t="n">
-        <v>29174349.7598463</v>
-      </c>
-      <c r="L8" t="n">
-        <v>8294265.485246</v>
-      </c>
-      <c r="M8" t="n">
-        <v>34626874.1112314</v>
-      </c>
-      <c r="N8" t="n">
-        <v>69765161.79980689</v>
-      </c>
-      <c r="O8" t="n">
-        <v>35714574.0765149</v>
-      </c>
-      <c r="P8" t="n">
-        <v>19911001.2074595</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>512227521.330381</v>
-      </c>
-      <c r="R8" t="n">
-        <v>47371541.8454451</v>
-      </c>
-      <c r="S8" t="n">
-        <v>19642471.5639087</v>
-      </c>
-      <c r="T8" t="n">
-        <v>130669616.091149</v>
-      </c>
-      <c r="U8" t="n">
-        <v>642897137.42153</v>
-      </c>
-      <c r="V8" t="n">
-        <v>131960061.171823</v>
-      </c>
-      <c r="W8" t="n">
-        <v>22492685.5504111</v>
-      </c>
-      <c r="X8" t="n">
-        <v>41162917.1313842</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>4866569.83127463</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>3084637.67205655</v>
-      </c>
-      <c r="C9" t="n">
-        <v>19135800.6887668</v>
-      </c>
-      <c r="D9" t="n">
-        <v>207313.792191609</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>150939.744838348</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
-        <v>22301825.0867091</v>
-      </c>
-      <c r="J9" t="n">
-        <v>61402366.5092415</v>
-      </c>
-      <c r="K9" t="n">
-        <v>33136453.6739678</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3948564.82200954</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
-        <v>80906200.942956</v>
-      </c>
-      <c r="O9" t="n">
-        <v>34600612.450999</v>
-      </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="n">
-        <v>463342761.371858</v>
-      </c>
-      <c r="R9" t="n">
-        <v>69163633.39334621</v>
-      </c>
-      <c r="S9" t="n">
-        <v>25650613.6490411</v>
-      </c>
-      <c r="T9" t="n">
-        <v>186114705.409012</v>
-      </c>
-      <c r="U9" t="n">
-        <v>649457466.78087</v>
-      </c>
-      <c r="V9" t="n">
-        <v>121417931.144837</v>
-      </c>
-      <c r="W9" t="n">
-        <v>22971926.5129176</v>
-      </c>
-      <c r="X9" t="n">
-        <v>68328531.85370719</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>1636688.55578952</v>
+        <v>1766033.0825439</v>
       </c>
     </row>
   </sheetData>
